--- a/biology/Médecine/Rétinaculum/Rétinaculum.xlsx
+++ b/biology/Médecine/Rétinaculum/Rétinaculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum</t>
+          <t>Rétinaculum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un rétinaculum (pluriel : rétinacula) est une structure fibreuse destinée à maintenir les tendons contre les structures osseuses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum</t>
+          <t>Rétinaculum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rétinaculum patellaire (ancienne nomenclature : aileron menisco-rotulien). Il est situé au niveau de la patella et est formé des fibres ménisco-patellaires (elles s'attachent sur la partie inférieure des bords médiaux et latéraux de la patella et se dirigent longitudinalement vers les ménisques) et des fibres fémoro-patellaires (elles s'attachent sur la partie supérieure des bords médiaux et latéraux de la patella et se dirigent transversalement vers le fémur).
 Rétinaculum des fléchisseurs, ou ligament annulaire antérieur du carpe (au poignet)
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum</t>
+          <t>Rétinaculum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas d'un syndrome du canal carpien, le traitement chirurgical consiste à sectionner le rétinaculum des fléchisseurs afin de décompresser le nerf médian.
 Lors d'une tendinite de Fritz de Quervain, l'échographie montre un épaississement du rétinaculum.
